--- a/MODS_List.xlsx
+++ b/MODS_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Minecraft Mods\MODS LIST SHEET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01CD9EC-7023-47CC-A263-ED45CC1539A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD9133A-9F01-447D-B157-A0E6A11BF835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{E74ECB2E-996A-4875-884C-8D1C5172DCE7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{E74ECB2E-996A-4875-884C-8D1C5172DCE7}"/>
   </bookViews>
   <sheets>
     <sheet name="1.21.1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="53">
   <si>
     <t>No</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>MC JAVA 1.21.10</t>
+  </si>
+  <si>
+    <t>Chunky</t>
   </si>
 </sst>
 </file>
@@ -282,14 +285,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -783,7 +786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B706093F-AB4D-4559-B913-F63F8F629CBD}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -797,14 +800,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -815,22 +818,22 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -838,13 +841,13 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -863,19 +866,19 @@
         <f>_xlfn.IFS(D5=0,"Not Available",D5=1,"OK",D5=2,"ALT")</f>
         <v>OK</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -892,7 +895,7 @@
         <f>_xlfn.IFS(D7=0,"Not Available",D7=1,"OK",D7=2,"ALT")</f>
         <v>OK</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -909,7 +912,7 @@
         <f t="shared" ref="E8:E24" si="0">_xlfn.IFS(D8=0,"Not Available",D8=1,"OK",D8=2,"ALT")</f>
         <v>OK</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -926,7 +929,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -943,7 +946,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -960,7 +963,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -977,7 +980,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -994,7 +997,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1011,19 +1014,19 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1040,7 +1043,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1057,7 +1060,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -1074,7 +1077,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -1091,7 +1094,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -1110,7 +1113,7 @@
         <f t="shared" si="0"/>
         <v>ALT</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -1127,7 +1130,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -1144,7 +1147,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -1161,7 +1164,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -1178,7 +1181,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1227,14 +1230,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -1245,22 +1248,22 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1268,13 +1271,13 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1293,19 +1296,19 @@
         <f>_xlfn.IFS(D5=0,"Not Available",D5=1,"OK",D5=2,"ALT")</f>
         <v>OK</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1322,7 +1325,7 @@
         <f>_xlfn.IFS(D7=0,"Not Available",D7=1,"OK",D7=2,"ALT")</f>
         <v>OK</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1339,7 +1342,7 @@
         <f t="shared" ref="E8:E27" si="0">_xlfn.IFS(D8=0,"Not Available",D8=1,"OK",D8=2,"ALT")</f>
         <v>OK</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1356,7 +1359,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1373,7 +1376,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1390,7 +1393,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1407,7 +1410,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1424,7 +1427,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1441,19 +1444,19 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1470,7 +1473,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1487,7 +1490,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -1504,7 +1507,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -1521,7 +1524,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -1538,7 +1541,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -1555,7 +1558,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -1572,7 +1575,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -1589,7 +1592,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -1606,7 +1609,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -1623,7 +1626,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -1640,7 +1643,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F26" s="9"/>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -1657,7 +1660,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F27" s="9"/>
+      <c r="F27" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1706,14 +1709,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -1724,22 +1727,22 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1747,13 +1750,13 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1772,19 +1775,19 @@
         <f>_xlfn.IFS(D5=0,"Not Available",D5=1,"OK",D5=2,"ALT")</f>
         <v>OK</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1801,7 +1804,7 @@
         <f>_xlfn.IFS(D7=0,"Not Available",D7=1,"OK",D7=2,"ALT")</f>
         <v>OK</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1818,7 +1821,7 @@
         <f t="shared" ref="E8:E27" si="0">_xlfn.IFS(D8=0,"Not Available",D8=1,"OK",D8=2,"ALT")</f>
         <v>OK</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1835,7 +1838,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1852,7 +1855,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1869,7 +1872,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1886,7 +1889,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1903,7 +1906,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1920,19 +1923,19 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1949,7 +1952,7 @@
         <f t="shared" si="0"/>
         <v>Not Available</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1966,7 +1969,7 @@
         <f t="shared" si="0"/>
         <v>Not Available</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -1983,7 +1986,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -2000,7 +2003,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -2017,7 +2020,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -2034,7 +2037,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -2051,7 +2054,7 @@
         <f t="shared" si="0"/>
         <v>Not Available</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -2068,7 +2071,7 @@
         <f t="shared" si="0"/>
         <v>Not Available</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -2085,7 +2088,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -2102,7 +2105,7 @@
         <f t="shared" si="0"/>
         <v>Not Available</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -2119,7 +2122,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F26" s="9"/>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -2136,7 +2139,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F27" s="9"/>
+      <c r="F27" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2185,14 +2188,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -2203,22 +2206,22 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2226,13 +2229,13 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2251,19 +2254,19 @@
         <f>_xlfn.IFS(D5=0,"Not Available",D5=1,"OK",D5=2,"ALT")</f>
         <v>OK</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -2280,7 +2283,7 @@
         <f>_xlfn.IFS(D7=0,"Not Available",D7=1,"OK",D7=2,"ALT")</f>
         <v>OK</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -2297,7 +2300,7 @@
         <f t="shared" ref="E8:E27" si="0">_xlfn.IFS(D8=0,"Not Available",D8=1,"OK",D8=2,"ALT")</f>
         <v>OK</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -2314,7 +2317,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -2331,7 +2334,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -2348,7 +2351,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -2365,7 +2368,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -2382,7 +2385,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -2399,19 +2402,19 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -2428,7 +2431,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -2445,7 +2448,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -2462,7 +2465,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -2479,7 +2482,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -2498,7 +2501,7 @@
         <f t="shared" si="0"/>
         <v>ALT</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -2515,7 +2518,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -2532,7 +2535,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -2551,7 +2554,7 @@
         <f t="shared" si="0"/>
         <v>ALT</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -2568,7 +2571,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -2585,7 +2588,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -2602,7 +2605,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F26" s="9"/>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -2619,7 +2622,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F27" s="9"/>
+      <c r="F27" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2667,14 +2670,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -2685,22 +2688,22 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2708,13 +2711,13 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2733,19 +2736,19 @@
         <f>_xlfn.IFS(D5=0,"Not Available",D5=1,"OK",D5=2,"ALT")</f>
         <v>OK</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -2762,7 +2765,7 @@
         <f>_xlfn.IFS(D7=0,"Not Available",D7=1,"OK",D7=2,"ALT")</f>
         <v>OK</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -2779,7 +2782,7 @@
         <f t="shared" ref="E8:E27" si="0">_xlfn.IFS(D8=0,"Not Available",D8=1,"OK",D8=2,"ALT")</f>
         <v>OK</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -2796,7 +2799,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -2813,7 +2816,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -2830,7 +2833,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -2847,7 +2850,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -2864,7 +2867,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -2881,19 +2884,19 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -2910,7 +2913,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -2927,7 +2930,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -2944,7 +2947,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -2961,7 +2964,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -2978,7 +2981,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -2995,7 +2998,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -3012,7 +3015,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -3031,7 +3034,7 @@
         <f t="shared" si="0"/>
         <v>ALT</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -3048,7 +3051,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -3065,7 +3068,7 @@
         <f t="shared" si="0"/>
         <v>Not Available</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -3082,7 +3085,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F26" s="9"/>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -3099,7 +3102,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F27" s="9"/>
+      <c r="F27" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3131,10 +3134,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F7259F-1FDA-4086-A7B3-32866E9EF768}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3147,14 +3150,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -3165,22 +3168,22 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3188,13 +3191,13 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3213,7 +3216,7 @@
         <f>_xlfn.IFS(D5=0,"Not Available",D5=1,"OK",D5=2,"ALT")</f>
         <v>OK</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -3230,19 +3233,19 @@
         <f>_xlfn.IFS(D6=0,"Not Available",D6=1,"OK",D6=2,"ALT")</f>
         <v>OK</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -3259,7 +3262,7 @@
         <f>_xlfn.IFS(D8=0,"Not Available",D8=1,"OK",D8=2,"ALT")</f>
         <v>OK</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -3273,10 +3276,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f t="shared" ref="E9:E28" si="0">_xlfn.IFS(D9=0,"Not Available",D9=1,"OK",D9=2,"ALT")</f>
-        <v>OK</v>
-      </c>
-      <c r="F9" s="9"/>
+        <f t="shared" ref="E9:E29" si="0">_xlfn.IFS(D9=0,"Not Available",D9=1,"OK",D9=2,"ALT")</f>
+        <v>OK</v>
+      </c>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -3293,7 +3296,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -3310,7 +3313,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -3327,7 +3330,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -3344,7 +3347,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -3361,7 +3364,7 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -3378,43 +3381,43 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-      <c r="F17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="1">
@@ -3424,14 +3427,14 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="1">
@@ -3441,14 +3444,14 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="1">
@@ -3458,14 +3461,14 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="1">
@@ -3475,14 +3478,14 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="1">
@@ -3492,14 +3495,14 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="1">
@@ -3509,84 +3512,84 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ALT</v>
-      </c>
-      <c r="F24" s="9"/>
+        <v>OK</v>
+      </c>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="D25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-      <c r="F25" s="9"/>
+        <v>ALT</v>
+      </c>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Not Available</v>
-      </c>
-      <c r="F26" s="9"/>
+        <v>OK</v>
+      </c>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-      <c r="F27" s="9"/>
+        <v>Not Available</v>
+      </c>
+      <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="1">
@@ -3596,22 +3599,39 @@
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>12</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="F29" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:F28"/>
+    <mergeCell ref="F4:F29"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:C6 C8:C15 C17:C28">
+  <conditionalFormatting sqref="C5:C6 C8:C16 C18:C29">
     <cfRule type="notContainsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(C5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E6 E8:E15 E17:E28">
+  <conditionalFormatting sqref="E5:E6 E18:E29 E8:E16">
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="ALT">
       <formula>NOT(ISERROR(SEARCH("ALT",E5)))</formula>
     </cfRule>

--- a/MODS_List.xlsx
+++ b/MODS_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Minecraft Mods\MODS LIST SHEET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD9133A-9F01-447D-B157-A0E6A11BF835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B353C2-787C-42D5-B2D5-A3EF51F01C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{E74ECB2E-996A-4875-884C-8D1C5172DCE7}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="55">
   <si>
     <t>No</t>
   </si>
@@ -189,13 +189,19 @@
   </si>
   <si>
     <t>Chunky</t>
+  </si>
+  <si>
+    <t>SkinRestorer</t>
+  </si>
+  <si>
+    <t>Simple Voice Chat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +213,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1192,18 +1204,18 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="C5 C7:C14 C16:C24">
-    <cfRule type="notContainsBlanks" dxfId="23" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(C5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5 E7:E14 E16:E24">
-    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="ALT">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="ALT">
       <formula>NOT(ISERROR(SEARCH("ALT",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="Not Available">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Not Available">
       <formula>NOT(ISERROR(SEARCH("Not Available",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1671,18 +1683,18 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="C5 C7:C14 C16:C24">
-    <cfRule type="notContainsBlanks" dxfId="19" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="23" priority="1">
       <formula>LEN(TRIM(C5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5 E7:E14 E16:E27">
-    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="ALT">
+    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="ALT">
       <formula>NOT(ISERROR(SEARCH("ALT",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="Not Available">
+    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="Not Available">
       <formula>NOT(ISERROR(SEARCH("Not Available",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2150,18 +2162,18 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="C5 C7:C14 C16:C24">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="19" priority="1">
       <formula>LEN(TRIM(C5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5 E7:E14 E16:E27">
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="ALT">
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="ALT">
       <formula>NOT(ISERROR(SEARCH("ALT",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="Not Available">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="Not Available">
       <formula>NOT(ISERROR(SEARCH("Not Available",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2633,18 +2645,18 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="C5 C7:C14 C16:C24">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="1">
       <formula>LEN(TRIM(C5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5 E7:E14 E16:E27">
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="ALT">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="ALT">
       <formula>NOT(ISERROR(SEARCH("ALT",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Not Available">
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="Not Available">
       <formula>NOT(ISERROR(SEARCH("Not Available",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3113,18 +3125,18 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="C5 C7:C14 C16:C24">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="1">
       <formula>LEN(TRIM(C5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5 E7:E14 E16:E27">
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="ALT">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="ALT">
       <formula>NOT(ISERROR(SEARCH("ALT",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Not Available">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Not Available">
       <formula>NOT(ISERROR(SEARCH("Not Available",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3134,10 +3146,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F7259F-1FDA-4086-A7B3-32866E9EF768}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3555,7 +3567,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1">
@@ -3618,27 +3630,45 @@
       </c>
       <c r="F29" s="10"/>
     </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>13</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f t="shared" ref="E30" si="1">_xlfn.IFS(D30=0,"Not Available",D30=1,"OK",D30=2,"ALT")</f>
+        <v>OK</v>
+      </c>
+      <c r="F30" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:F29"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="F4:F30"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:C6 C8:C16 C18:C29">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="1">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="C5:C6 C8:C16 C18:C30">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="1">
       <formula>LEN(TRIM(C5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E6 E18:E29 E8:E16">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="ALT">
+  <conditionalFormatting sqref="E5:E6 E8:E16 E18:E30">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="ALT">
       <formula>NOT(ISERROR(SEARCH("ALT",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Not Available">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Not Available">
       <formula>NOT(ISERROR(SEARCH("Not Available",E5)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/MODS_List.xlsx
+++ b/MODS_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Minecraft Mods\MODS LIST SHEET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B353C2-787C-42D5-B2D5-A3EF51F01C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8C3E2E-D95C-4BC0-8DF1-4D4B270326DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{E74ECB2E-996A-4875-884C-8D1C5172DCE7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="6" xr2:uid="{E74ECB2E-996A-4875-884C-8D1C5172DCE7}"/>
   </bookViews>
   <sheets>
     <sheet name="1.21.1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="1.21.6" sheetId="4" r:id="rId4"/>
     <sheet name="1.21.8" sheetId="5" r:id="rId5"/>
     <sheet name="1.21.10" sheetId="6" r:id="rId6"/>
+    <sheet name="1.21.11" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="58">
   <si>
     <t>No</t>
   </si>
@@ -195,6 +196,15 @@
   </si>
   <si>
     <t>Simple Voice Chat</t>
+  </si>
+  <si>
+    <t>Client Sort</t>
+  </si>
+  <si>
+    <t>1.21.11</t>
+  </si>
+  <si>
+    <t>MC JAVA 1.21.11</t>
   </si>
 </sst>
 </file>
@@ -310,7 +320,35 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1204,18 +1242,18 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="C5 C7:C14 C16:C24">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="27" priority="1">
       <formula>LEN(TRIM(C5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5 E7:E14 E16:E24">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="ALT">
+    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="ALT">
       <formula>NOT(ISERROR(SEARCH("ALT",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Not Available">
+    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="Not Available">
       <formula>NOT(ISERROR(SEARCH("Not Available",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3148,8 +3186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F7259F-1FDA-4086-A7B3-32866E9EF768}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3497,7 +3535,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="1">
@@ -3674,4 +3712,535 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17872053-FD3C-425B-A7A3-BB452EA8DB93}">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f>_xlfn.IFS(D5=0,"Not Available",D5=1,"OK",D5=2,"ALT")</f>
+        <v>OK</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f>_xlfn.IFS(D6=0,"Not Available",D6=1,"OK",D6=2,"ALT")</f>
+        <v>OK</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f>_xlfn.IFS(D8=0,"Not Available",D8=1,"OK",D8=2,"ALT")</f>
+        <v>OK</v>
+      </c>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f t="shared" ref="E9:E30" si="0">_xlfn.IFS(D9=0,"Not Available",D9=1,"OK",D9=2,"ALT")</f>
+        <v>OK</v>
+      </c>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Available</v>
+      </c>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Available</v>
+      </c>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>7</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>8</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>ALT</v>
+      </c>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>9</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Available</v>
+      </c>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>10</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>11</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Available</v>
+      </c>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>12</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>13</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+      <c r="F30" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:F30"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B17:E17"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:C6 C8:C16 C18:C30">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="1">
+      <formula>LEN(TRIM(C5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E6 E8:E16 E18:E30">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="ALT">
+      <formula>NOT(ISERROR(SEARCH("ALT",E5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",E5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Not Available">
+      <formula>NOT(ISERROR(SEARCH("Not Available",E5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>